--- a/接口测试/Interface/testCaseFile.xlsx
+++ b/接口测试/Interface/testCaseFile.xlsx
@@ -4,19 +4,19 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28080" windowHeight="13050"/>
+    <workbookView windowWidth="28695" windowHeight="13050"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="144525"/>
+  <calcPr calcId="144525" concurrentCalc="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29">
   <si>
     <t>No.</t>
   </si>
@@ -63,7 +63,7 @@
     <t>Form</t>
   </si>
   <si>
-    <t>{"uname":"15112408147","pwd":"123456"}</t>
+    <t>{"uname":"187071484771","pwd":"123456"}</t>
   </si>
   <si>
     <t>MD5</t>
@@ -81,7 +81,28 @@
     <t>/getprice</t>
   </si>
   <si>
-    <t>{"car_struct_name":"商务","capacity":"5","etBeginTime":"2016-07-16 15:55:00","etFinishTime":"2016-07-16 15:55:09","vehicleCount":"1","tdays":"0","fromCity":"深圳市","departurePlace":"深圳北站","toCity":"深圳市","destinationPlace":"深圳皇岗口岸","tagValue":"","tripValue":"","cost":"140","contractName":"test","contractPhone":"18707148477","remark":"script","contr_select_bus_info":"0","couponName":"","departureCoords":"{'area':',广州市,越秀区,','coords':[23.155001,113.264057],'name':'广州火车站'}","destinationCoords":"{'area':'广东省,深圳市,福田区,福田南路,','coords':[22.615102,114.035529],'name':'深圳皇岗口岸'}","pathway":"[]","content":"[{'key':'driver_info','name':'司机业务属性','values':[]},{'key':'bus_info','name':'车辆新旧程度','values':{'name':'全部','value':'0'}}]","jobType":"0","confirm":"0","days":"0","tripNo":"","withTolls":"0","addItion":"0","count":"","couponCode":""}</t>
+    <t>Get</t>
+  </si>
+  <si>
+    <t>{"car_struct_name":"商务","newcapacity":"5","etBeginTime":"2016-07-16 15:55:00","etFinishTime":"2016-07-16 15:55:09","vehicleCount":"1","tdays":"0","fromCity":"深圳市","departurePlace":"深圳北站","toCity":"深圳市","destinationPlace":"深圳皇岗口岸","tagValue":"","tripValue":"","cost":"140","contractName":"test","contractPhone":"18707148477","remark":"script","contr_select_bus_info":"0","couponName":"","departureCoords":"{'area':',广州市,越秀区,','coords':[23.155001,113.264057],'name':'广州火车站'}","destinationCoords":"{'area':'广东省,深圳市,福田区,福田南路,','coords':[22.615102,114.035529],'name':'深圳皇岗口岸'}","pathway":"[]","content":"[{'key':'driver_info','name':'司机业务属性','values':[]},{'key':'bus_info','name':'车辆新旧程度','values':{'name':'全部','value':'0'}}]","jobType":"0","confirm":"0","days":"0","tripNo":"","withTolls":"0","addItion":"0","count":"","couponCode":""}</t>
+  </si>
+  <si>
+    <t>提交订单</t>
+  </si>
+  <si>
+    <t>/addorder</t>
+  </si>
+  <si>
+    <t>{"car_struct_name":"商务","newcapacity":"5","etBeginTime":"2016-07-16 15:55:00","etFinishTime":"2016-07-16 15:55:09","vehicleCount":"1","tdays":"0","fromCity":"深圳市","departurePlace":"深圳北站","toCity":"深圳市","destinationPlace":"深圳皇岗口岸","tagValue":"","tripValue":"","cost":"140","contractName":"test","contractPhone":"18707148477","remark":"script","contr_select_bus_info":"0","couponName":"","departureCoords":"{'area':',广州市,越秀区,','coords':[23.155001,113.264057],'name':'广州火车站'}","destinationCoords":"{'area':'广东省,深圳市,福田区,福田南路,','coords':[22.615102,114.035529],'name':'深圳皇岗口岸'}","pathway":"[]","content":"[{'key':'driver_info','name':'司机业务属性','values':[]},{'key':'bus_info','name':'车辆新旧程度','values':{'name':'全部','value':'0'}}]","jobType":"0","confirm":"0","days":"0","tripNo":"","withTolls":"0","addItion":"0","count":"","couponCode":"","sid":"ADA1235B3F2C173E68E4B142D5B55CF7"}</t>
+  </si>
+  <si>
+    <t>推送订单</t>
+  </si>
+  <si>
+    <t>/postorderapi</t>
+  </si>
+  <si>
+    <t>orderNo</t>
   </si>
 </sst>
 </file>
@@ -89,11 +110,11 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="5">
+    <numFmt numFmtId="176" formatCode="0_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="176" formatCode="0_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -126,17 +147,107 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -148,47 +259,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -203,59 +276,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -270,6 +291,144 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -282,169 +441,31 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -475,30 +496,6 @@
       </top>
       <bottom style="thin">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="thin">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
       </bottom>
       <diagonal/>
     </border>
@@ -528,21 +525,6 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
       <right style="thin">
@@ -553,6 +535,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,8 +562,38 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -584,10 +605,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="18" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="14" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -596,16 +617,16 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -614,119 +635,119 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="28" borderId="9" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="17" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="13" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -767,6 +788,9 @@
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -1118,8 +1142,8 @@
   <sheetPr/>
   <dimension ref="A1:J30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="$A4:$XFD4"/>
+    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -1127,12 +1151,12 @@
     <col min="1" max="1" width="9" style="3"/>
     <col min="2" max="2" width="13.25" customWidth="1"/>
     <col min="3" max="3" width="23" customWidth="1"/>
-    <col min="4" max="4" width="7.75" customWidth="1"/>
+    <col min="4" max="4" width="15.375" customWidth="1"/>
     <col min="5" max="5" width="14.125" customWidth="1"/>
     <col min="6" max="6" width="13.5" customWidth="1"/>
     <col min="7" max="7" width="87.125" customWidth="1"/>
     <col min="8" max="8" width="12.625" customWidth="1"/>
-    <col min="9" max="9" width="15.375" customWidth="1"/>
+    <col min="9" max="9" width="18.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:10">
@@ -1167,7 +1191,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" ht="69" customHeight="1" spans="1:10">
       <c r="A2" s="6">
         <v>1</v>
       </c>
@@ -1199,7 +1223,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="3" s="2" customFormat="1" ht="213" customHeight="1" spans="1:10">
+    <row r="3" s="2" customFormat="1" ht="209" customHeight="1" spans="1:10">
       <c r="A3" s="6">
         <v>2</v>
       </c>
@@ -1213,13 +1237,13 @@
         <v>20</v>
       </c>
       <c r="E3" s="12" t="s">
-        <v>13</v>
+        <v>21</v>
       </c>
       <c r="F3" s="12" t="s">
         <v>14</v>
       </c>
       <c r="G3" s="13" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H3" s="12"/>
       <c r="I3" s="9" t="s">
@@ -1227,32 +1251,58 @@
       </c>
       <c r="J3" s="12"/>
     </row>
-    <row r="4" spans="1:10">
-      <c r="A4" s="6"/>
-      <c r="B4" s="9"/>
-      <c r="C4" s="9"/>
-      <c r="D4" s="9"/>
-      <c r="E4" s="9"/>
-      <c r="F4" s="9"/>
-      <c r="G4" s="9"/>
+    <row r="4" ht="187" customHeight="1" spans="1:10">
+      <c r="A4" s="6">
+        <v>3</v>
+      </c>
+      <c r="B4" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D4" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="F4" s="12" t="s">
+        <v>14</v>
+      </c>
+      <c r="G4" s="14" t="s">
+        <v>25</v>
+      </c>
       <c r="H4" s="9"/>
       <c r="I4" s="9"/>
       <c r="J4" s="9"/>
     </row>
-    <row r="5" spans="1:10">
-      <c r="A5" s="14"/>
-      <c r="B5" s="9"/>
-      <c r="C5" s="9"/>
-      <c r="D5" s="9"/>
-      <c r="E5" s="9"/>
+    <row r="5" ht="88" customHeight="1" spans="1:10">
+      <c r="A5" s="15">
+        <v>4</v>
+      </c>
+      <c r="B5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" s="11" t="s">
+        <v>11</v>
+      </c>
+      <c r="D5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>21</v>
+      </c>
       <c r="F5" s="9"/>
-      <c r="G5" s="9"/>
+      <c r="G5" s="9" t="s">
+        <v>28</v>
+      </c>
       <c r="H5" s="9"/>
       <c r="I5" s="9"/>
       <c r="J5" s="9"/>
     </row>
-    <row r="6" spans="1:10">
-      <c r="A6" s="14"/>
+    <row r="6" ht="88" customHeight="1" spans="1:10">
+      <c r="A6" s="15"/>
       <c r="B6" s="9"/>
       <c r="C6" s="9"/>
       <c r="D6" s="9"/>
@@ -1263,8 +1313,8 @@
       <c r="I6" s="9"/>
       <c r="J6" s="9"/>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7" s="14"/>
+    <row r="7" ht="88" customHeight="1" spans="1:10">
+      <c r="A7" s="15"/>
       <c r="B7" s="9"/>
       <c r="C7" s="9"/>
       <c r="D7" s="9"/>
@@ -1275,8 +1325,8 @@
       <c r="I7" s="9"/>
       <c r="J7" s="9"/>
     </row>
-    <row r="8" spans="1:10">
-      <c r="A8" s="14"/>
+    <row r="8" ht="88" customHeight="1" spans="1:10">
+      <c r="A8" s="15"/>
       <c r="B8" s="9"/>
       <c r="C8" s="9"/>
       <c r="D8" s="9"/>
@@ -1287,8 +1337,8 @@
       <c r="I8" s="9"/>
       <c r="J8" s="9"/>
     </row>
-    <row r="9" spans="1:10">
-      <c r="A9" s="14"/>
+    <row r="9" ht="88" customHeight="1" spans="1:10">
+      <c r="A9" s="15"/>
       <c r="B9" s="9"/>
       <c r="C9" s="9"/>
       <c r="D9" s="9"/>
@@ -1299,8 +1349,8 @@
       <c r="I9" s="9"/>
       <c r="J9" s="9"/>
     </row>
-    <row r="10" spans="1:10">
-      <c r="A10" s="14"/>
+    <row r="10" ht="88" customHeight="1" spans="1:10">
+      <c r="A10" s="15"/>
       <c r="B10" s="9"/>
       <c r="C10" s="9"/>
       <c r="D10" s="9"/>
@@ -1311,8 +1361,8 @@
       <c r="I10" s="9"/>
       <c r="J10" s="9"/>
     </row>
-    <row r="11" spans="1:10">
-      <c r="A11" s="14"/>
+    <row r="11" ht="88" customHeight="1" spans="1:10">
+      <c r="A11" s="15"/>
       <c r="B11" s="9"/>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
@@ -1323,8 +1373,8 @@
       <c r="I11" s="9"/>
       <c r="J11" s="9"/>
     </row>
-    <row r="12" spans="1:10">
-      <c r="A12" s="14"/>
+    <row r="12" ht="88" customHeight="1" spans="1:10">
+      <c r="A12" s="15"/>
       <c r="B12" s="9"/>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
@@ -1335,8 +1385,8 @@
       <c r="I12" s="9"/>
       <c r="J12" s="9"/>
     </row>
-    <row r="13" spans="1:10">
-      <c r="A13" s="14"/>
+    <row r="13" ht="88" customHeight="1" spans="1:10">
+      <c r="A13" s="15"/>
       <c r="B13" s="9"/>
       <c r="C13" s="9"/>
       <c r="D13" s="9"/>
@@ -1347,8 +1397,8 @@
       <c r="I13" s="9"/>
       <c r="J13" s="9"/>
     </row>
-    <row r="14" spans="1:10">
-      <c r="A14" s="14"/>
+    <row r="14" ht="88" customHeight="1" spans="1:10">
+      <c r="A14" s="15"/>
       <c r="B14" s="9"/>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
@@ -1360,7 +1410,7 @@
       <c r="J14" s="9"/>
     </row>
     <row r="15" spans="1:10">
-      <c r="A15" s="14"/>
+      <c r="A15" s="15"/>
       <c r="B15" s="9"/>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
@@ -1372,7 +1422,7 @@
       <c r="J15" s="9"/>
     </row>
     <row r="16" spans="1:10">
-      <c r="A16" s="14"/>
+      <c r="A16" s="15"/>
       <c r="B16" s="9"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
@@ -1384,7 +1434,7 @@
       <c r="J16" s="9"/>
     </row>
     <row r="17" spans="1:10">
-      <c r="A17" s="14"/>
+      <c r="A17" s="15"/>
       <c r="B17" s="9"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
@@ -1396,7 +1446,7 @@
       <c r="J17" s="9"/>
     </row>
     <row r="18" spans="1:10">
-      <c r="A18" s="14"/>
+      <c r="A18" s="15"/>
       <c r="B18" s="9"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
@@ -1408,7 +1458,7 @@
       <c r="J18" s="9"/>
     </row>
     <row r="19" spans="1:10">
-      <c r="A19" s="14"/>
+      <c r="A19" s="15"/>
       <c r="B19" s="9"/>
       <c r="C19" s="9"/>
       <c r="D19" s="9"/>
@@ -1420,7 +1470,7 @@
       <c r="J19" s="9"/>
     </row>
     <row r="20" spans="1:10">
-      <c r="A20" s="14"/>
+      <c r="A20" s="15"/>
       <c r="B20" s="9"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
@@ -1432,7 +1482,7 @@
       <c r="J20" s="9"/>
     </row>
     <row r="21" spans="1:10">
-      <c r="A21" s="14"/>
+      <c r="A21" s="15"/>
       <c r="B21" s="9"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
@@ -1444,7 +1494,7 @@
       <c r="J21" s="9"/>
     </row>
     <row r="22" spans="1:10">
-      <c r="A22" s="14"/>
+      <c r="A22" s="15"/>
       <c r="B22" s="9"/>
       <c r="C22" s="9"/>
       <c r="D22" s="9"/>
@@ -1456,7 +1506,7 @@
       <c r="J22" s="9"/>
     </row>
     <row r="23" spans="1:10">
-      <c r="A23" s="14"/>
+      <c r="A23" s="15"/>
       <c r="B23" s="9"/>
       <c r="C23" s="9"/>
       <c r="D23" s="9"/>
@@ -1468,7 +1518,7 @@
       <c r="J23" s="9"/>
     </row>
     <row r="24" spans="1:10">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="9"/>
       <c r="C24" s="9"/>
       <c r="D24" s="9"/>
@@ -1480,7 +1530,7 @@
       <c r="J24" s="9"/>
     </row>
     <row r="25" spans="1:10">
-      <c r="A25" s="14"/>
+      <c r="A25" s="15"/>
       <c r="B25" s="9"/>
       <c r="C25" s="9"/>
       <c r="D25" s="9"/>
@@ -1492,7 +1542,7 @@
       <c r="J25" s="9"/>
     </row>
     <row r="26" spans="1:10">
-      <c r="A26" s="14"/>
+      <c r="A26" s="15"/>
       <c r="B26" s="9"/>
       <c r="C26" s="9"/>
       <c r="D26" s="9"/>
@@ -1504,7 +1554,7 @@
       <c r="J26" s="9"/>
     </row>
     <row r="27" spans="1:10">
-      <c r="A27" s="14"/>
+      <c r="A27" s="15"/>
       <c r="B27" s="9"/>
       <c r="C27" s="9"/>
       <c r="D27" s="9"/>
@@ -1516,7 +1566,7 @@
       <c r="J27" s="9"/>
     </row>
     <row r="28" spans="1:10">
-      <c r="A28" s="14"/>
+      <c r="A28" s="15"/>
       <c r="B28" s="9"/>
       <c r="C28" s="9"/>
       <c r="D28" s="9"/>
@@ -1528,7 +1578,7 @@
       <c r="J28" s="9"/>
     </row>
     <row r="29" spans="1:10">
-      <c r="A29" s="14"/>
+      <c r="A29" s="15"/>
       <c r="B29" s="9"/>
       <c r="C29" s="9"/>
       <c r="D29" s="9"/>
@@ -1540,7 +1590,7 @@
       <c r="J29" s="9"/>
     </row>
     <row r="30" spans="1:10">
-      <c r="A30" s="14"/>
+      <c r="A30" s="15"/>
       <c r="B30" s="9"/>
       <c r="C30" s="9"/>
       <c r="D30" s="9"/>
@@ -1555,6 +1605,8 @@
   <hyperlinks>
     <hyperlink ref="C2" r:id="rId1" display="http://www.senbaba.cn"/>
     <hyperlink ref="C3" r:id="rId1" display="http://www.senbaba.cn"/>
+    <hyperlink ref="C4" r:id="rId1" display="http://www.senbaba.cn"/>
+    <hyperlink ref="C5" r:id="rId1" display="http://www.senbaba.cn"/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
